--- a/biology/Zoologie/Dicronocephalus/Dicronocephalus.xlsx
+++ b/biology/Zoologie/Dicronocephalus/Dicronocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicronocephalus est un genre d'insectes coléoptères de la famille des Scarabaeidae, de la sous-famille des Cetoniinae, de la tribu des Goliathini. Il a été décrit par Frederick William Hope en 1831.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette cétoine possède en général un corps aplati de couleur noire sans reflets métalliques avec trois paires de pattes de couleur jaunâtre. Elle mesure 2 cm de longueur sur 1 cm de largeur. Elle possède parfois des minuscules taches orangé à l'articulation de l'exosquelette. L'espèce Dicronocephalus wallichii quant à elle est entièrement jaune.
 La surface de ses élytres est renforcée par de nombreux points et entailles.
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Dicronocephalus s'observent surtout dans les forêts tropicales de Chine, jusqu'en Birmanie et nord-est de l'Inde pour certaines espèces[1], mais peuvent aussi fréquenter les jardins et les prairies.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Dicronocephalus s'observent surtout dans les forêts tropicales de Chine, jusqu'en Birmanie et nord-est de l'Inde pour certaines espèces, mais peuvent aussi fréquenter les jardins et les prairies.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dicronocephalus adamsi Pascoe, 1863
 Dicronocephalus adamsi drumonti Legrand, 2005
@@ -583,9 +601,9 @@
 Dicronocephalus dabryi Auzoux, 1869
 Dicronocephalus shimomurai Kurosawa, 1986
 Dicronocephalus uenoi Kurosawa, 1968
-Dicronocephalus wallichii Hope, 1831[2]
+Dicronocephalus wallichii Hope, 1831
 Dicronocephalus wallichii bowringi Pascoe, 1836
-en langue vernaculaire, le Goliath dicronocéphale[3]</t>
+en langue vernaculaire, le Goliath dicronocéphale</t>
         </is>
       </c>
     </row>
